--- a/biology/Biologie cellulaire et moléculaire/Endomucine/Endomucine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Endomucine/Endomucine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’endomucine (EMCN[5]) est une glycoprotéine de la famille des sialomucines. Elle est notamment sécrétée par les cellules endothéliales des veinules à endothélium épais (HEV)[6].
-Elle interfère avec l'assemblage des complexes d'adhésion focale et inhibe l'interaction entre les cellules et la matrice extracellulaire[7],[8].
-Dans l'espèce humaine, elle est codée par le gène EMCN sur le chromosome 4[5]. Le facteur de transcription GATA2 module l'expression de l'endomucine[9].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’endomucine (EMCN) est une glycoprotéine de la famille des sialomucines. Elle est notamment sécrétée par les cellules endothéliales des veinules à endothélium épais (HEV).
+Elle interfère avec l'assemblage des complexes d'adhésion focale et inhibe l'interaction entre les cellules et la matrice extracellulaire,.
+Dans l'espèce humaine, elle est codée par le gène EMCN sur le chromosome 4. Le facteur de transcription GATA2 module l'expression de l'endomucine.
 </t>
         </is>
       </c>
